--- a/Script/RequirementTL.xlsx
+++ b/Script/RequirementTL.xlsx
@@ -352,9 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,6 +359,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,19 +723,19 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -743,101 +743,101 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="3"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="3" t="s">
         <v>9</v>
       </c>
@@ -869,7 +869,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -883,13 +883,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -897,61 +897,61 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="3" t="s">
         <v>25</v>
       </c>
@@ -959,11 +959,11 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="3" t="s">
         <v>6</v>
       </c>
@@ -971,11 +971,11 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="5"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,11 +987,11 @@
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1003,43 +1003,43 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1051,11 +1051,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
@@ -1067,15 +1067,15 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -1083,27 +1083,27 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="13"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="13"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="3" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="F39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1139,55 +1139,55 @@
       <c r="F40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="16"/>
       <c r="J41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="3" t="s">
         <v>7</v>
       </c>
@@ -1199,11 +1199,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1215,15 +1215,15 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -1231,49 +1231,49 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="4"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="16"/>
       <c r="J47" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="12"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="16"/>
       <c r="J48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="16"/>
       <c r="J49" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="16"/>
       <c r="J50" s="3" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1281,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E51" s="7"/>
       <c r="F51" s="11"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1289,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E52" s="7"/>
       <c r="F52" s="11"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1323,13 +1323,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -1343,11 +1343,11 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1359,15 +1359,15 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -1375,112 +1375,113 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="13"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="3"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="13"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="13"/>
+      <c r="I59" s="16"/>
       <c r="J59" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="13"/>
+      <c r="I60" s="16"/>
       <c r="J60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="13"/>
+      <c r="I61" s="16"/>
       <c r="J61" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="13"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="16"/>
       <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="13"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="13"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="16"/>
       <c r="F65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I66" s="7"/>
       <c r="J66" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I35:I41"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="E20:E36"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="E55:E65"/>
+    <mergeCell ref="I57:I62"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="I8:I16"/>
     <mergeCell ref="I21:I30"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="I35:I41"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="E55:E64"/>
-    <mergeCell ref="I57:I63"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="E20:E36"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="A41:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Script/RequirementTL.xlsx
+++ b/Script/RequirementTL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -352,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,15 +364,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -667,22 +696,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,127 +751,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
       <c r="B15" s="3"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="3"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="15"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="16"/>
       <c r="J16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,9 +879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
@@ -866,10 +893,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="E20" s="13" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -882,164 +907,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="E21" s="14"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="E22" s="14"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="E23" s="14"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="E24" s="14"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="E25" s="14"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3"/>
-      <c r="E26" s="14"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="5"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1050,12 +1069,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
@@ -1066,49 +1085,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="16"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="13"/>
       <c r="J37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="16"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="13"/>
       <c r="J38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,12 +1140,12 @@
       <c r="F39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="16"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,55 +1158,55 @@
       <c r="F40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="16"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
       <c r="B43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="3" t="s">
         <v>7</v>
       </c>
@@ -1198,12 +1217,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1214,87 +1233,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="15"/>
       <c r="F46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="4"/>
-      <c r="I47" s="16"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="12"/>
-      <c r="I48" s="16"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
-      <c r="I49" s="16"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E51" s="7"/>
       <c r="F51" s="11"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E52" s="7"/>
       <c r="F52" s="11"/>
-      <c r="I52" s="16"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -1322,14 +1341,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -1342,12 +1361,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
       <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1358,116 +1377,120 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I58" s="16"/>
+      <c r="I58" s="13"/>
       <c r="J58" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="16"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="16"/>
+      <c r="I60" s="13"/>
       <c r="J60" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
       <c r="B61" s="3"/>
-      <c r="E61" s="16"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="16"/>
+      <c r="I61" s="13"/>
       <c r="J61" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="16"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="16"/>
+      <c r="I62" s="13"/>
       <c r="J62" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="16"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E63" s="13"/>
       <c r="F63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="16"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E65" s="16"/>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E65" s="13"/>
       <c r="F65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:10" ht="15" x14ac:dyDescent="0.25">
       <c r="I66" s="7"/>
       <c r="J66" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="I8:I16"/>
+    <mergeCell ref="I21:I30"/>
     <mergeCell ref="I35:I41"/>
     <mergeCell ref="I46:I52"/>
     <mergeCell ref="A55:A61"/>
@@ -1477,11 +1500,6 @@
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="E55:E65"/>
     <mergeCell ref="I57:I62"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="I8:I16"/>
-    <mergeCell ref="I21:I30"/>
-    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1494,7 +1512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1506,7 +1524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
